--- a/biology/Médecine/CIM-10_Chapitre_07___Maladies_de_l'œil_et_de_ses_annexes/CIM-10_Chapitre_07___Maladies_de_l'œil_et_de_ses_annexes.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_07___Maladies_de_l'œil_et_de_ses_annexes/CIM-10_Chapitre_07___Maladies_de_l'œil_et_de_ses_annexes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_07_:_Maladies_de_l%27%C5%93il_et_de_ses_annexes</t>
+          <t>CIM-10_Chapitre_07_:_Maladies_de_l'œil_et_de_ses_annexes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le chapitre VII de la classification internationale des maladies[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le chapitre VII de la classification internationale des maladies.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_07_:_Maladies_de_l%27%C5%93il_et_de_ses_annexes</t>
+          <t>CIM-10_Chapitre_07_:_Maladies_de_l'œil_et_de_ses_annexes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Liste des classes du chapitre 07</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CIM-10 Chapitre 07 : Maladies de l'œil et de ses annexes (H00-H59)
-(H00-H06) Affections de la paupière, de l'appareil lacrymal et de l'orbite
-(H00) Orgelet et chalazion
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CIM-10 Chapitre 07 : Maladies de l'œil et de ses annexes (H00-H59)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_07_:_Maladies_de_l'œil_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_07_:_Maladies_de_l%27%C5%93il_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(H00-H06) Affections de la paupière, de l'appareil lacrymal et de l'orbite</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(H00) Orgelet et chalazion
 (H00.0) Orgelet et autres inflammations de la paupière
 (H00.1) Chalazion
 (H01) Autres inflammations de la paupière
@@ -547,9 +596,43 @@
 (H05) Affections de l'orbite
 (H05.2) Conditions  exophtalmiques
 (H05.4) Enophtalmie
-(H06) Affections de l'appareil lacrymal et de l'orbite au cours de maladies classées ailleurs
-(H10-H13) Affections de la conjonctive
-(H10) Conjonctivite
+(H06) Affections de l'appareil lacrymal et de l'orbite au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_07_:_Maladies_de_l'œil_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_07_:_Maladies_de_l%27%C5%93il_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(H10-H13) Affections de la conjonctive</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(H10) Conjonctivite
 (H11) Autres affections de la conjonctive
 (H11.0) Ptérygion
 (H11.1) Dégénérations de et dépôts
@@ -561,18 +644,86 @@
 (H11.8) Autres affections spécifiées de la conjonctive
 Pseudoptérygion
 (H11.9) Affection de la conjonctive, non spécifié
-(H13) Affections de la conjonctive au cours de maladies classées ailleurs
-(H15-H22) Affections de la sclérotique, de la cornée, de l'iris et du corps ciliaire
-(H15) Affections de la sclérotique
+(H13) Affections de la conjonctive au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_07_:_Maladies_de_l'œil_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_07_:_Maladies_de_l%27%C5%93il_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(H15-H22) Affections de la sclérotique, de la cornée, de l'iris et du corps ciliaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(H15) Affections de la sclérotique
 (H16) Kératite
 (H17) Cicatrices et opacités cornéennes
 (H18) Autres affections de la cornée
 (H19) Affections de la sclérotique et de la cornée au cours de maladies classées ailleurs
 (H20) Iridocyclite
 (H21) Autres affections de l'iris et du corps ciliaire
-(H22) Affections de l'iris et du corps ciliaire au cours de maladies classées ailleurs
-(H25-H28) Affections du cristallin
-(H25) Cataracte sénile (A l'exclusion de : glaucome capsulaire avec pseudo-exfoliation cristallinienne (H40.1))
+(H22) Affections de l'iris et du corps ciliaire au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_07_:_Maladies_de_l'œil_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_07_:_Maladies_de_l%27%C5%93il_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(H25-H28) Affections du cristallin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(H25) Cataracte sénile (A l'exclusion de : glaucome capsulaire avec pseudo-exfoliation cristallinienne (H40.1))
 (H25.0) Cataracte incipiente sénile
 Cataracte sénile coronaire
 Cataracte sénile corticale
@@ -612,36 +763,274 @@
 Cataracte au cours de malnutrition-déshydratation (E40-E46+)
 (H28.2) Cataracte au cours d'autres maladies classées ailleurs
 Cataracte myotonique (G71.1+)
-(H28.8) Autres affections du cristallin au cours de maladies classées ailleurs
-(H30-H36) Affections de la choroïde et de la rétine
-(H30) Choriorétinite
+(H28.8) Autres affections du cristallin au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_07_:_Maladies_de_l'œil_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_07_:_Maladies_de_l%27%C5%93il_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(H30-H36) Affections de la choroïde et de la rétine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(H30) Choriorétinite
 (H31) Autres affections de la choroïde
 (H32) Affections choriorétiniennes au cours de maladies classées ailleurs
 (H33) Décollement et déchirure de la rétine
 (H34) Occlusions vasculaires rétiniennes
 (H35) Autres affections rétiniennes
-(H36) Affections rétiniennes au cours de maladies classées ailleurs
-(H40-H42) Glaucome
-(H40) Glaucome
-(H42) Glaucome au cours de maladies classées ailleurs
-(H43-H45) Affections du corps vitré et du globe oculaire
-H43) Affections du corps vitré
+(H36) Affections rétiniennes au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_07_:_Maladies_de_l'œil_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_07_:_Maladies_de_l%27%C5%93il_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(H40-H42) Glaucome</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(H40) Glaucome
+(H42) Glaucome au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_07_:_Maladies_de_l'œil_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_07_:_Maladies_de_l%27%C5%93il_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(H43-H45) Affections du corps vitré et du globe oculaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>H43) Affections du corps vitré
 (H44) Affections du globe oculaire
-(H45) Affections du corps vitré et du globe oculaire au cours de maladies classées ailleurs
-(H46-H48) Affections du nerf et des voies optiques
-(H46) Névrite optique
+(H45) Affections du corps vitré et du globe oculaire au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_07_:_Maladies_de_l'œil_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_07_:_Maladies_de_l%27%C5%93il_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(H46-H48) Affections du nerf et des voies optiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(H46) Névrite optique
 (H47) Autres affections du nerf (II) et des voies optiques
-(H48) Affections du nerf [II] et des voies optiques au cours de maladies classées ailleurs
-(H49-H52) Affections des muscles oculaires, des mouvements binoculaires, de l'accommodation et de la réfraction
-(H49) Strabisme paralytique
+(H48) Affections du nerf [II] et des voies optiques au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_07_:_Maladies_de_l'œil_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_07_:_Maladies_de_l%27%C5%93il_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(H49-H52) Affections des muscles oculaires, des mouvements binoculaires, de l'accommodation et de la réfraction</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(H49) Strabisme paralytique
 (H50) Autres strabismes
 (H51) Autres anomalies des mouvements binoculaires
-(H52) Vices de réfraction et troubles de l'accommodation
-(H53-H54) Troubles de la vision et cécité
-(H53) Troubles de la vision
-(H54) Cécité et baisse de la vision
-(H55-H59) Autres affections de l'œil et de ses annexes
-(H55) Nystagmus et autres anomalies des mouvements oculaires
+(H52) Vices de réfraction et troubles de l'accommodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_07_:_Maladies_de_l'œil_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_07_:_Maladies_de_l%27%C5%93il_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(H53-H54) Troubles de la vision et cécité</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(H53) Troubles de la vision
+(H54) Cécité et baisse de la vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_07_:_Maladies_de_l'œil_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_07_:_Maladies_de_l%27%C5%93il_et_de_ses_annexes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(H55-H59) Autres affections de l'œil et de ses annexes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(H55) Nystagmus et autres anomalies des mouvements oculaires
 (H57) Autres affections de l'œil et de ses annexes
 (H58) Autres affections de l'œil et de ses annexes au cours de maladies classées ailleurs
 (H59) Affections de l'œil et de ses annexes après un acte à visée diagnostique et thérapeutique, non classées ailleurs</t>
